--- a/东京奥运会奖牌数据.xlsx
+++ b/东京奥运会奖牌数据.xlsx
@@ -1,32 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\泰迪杯工作室\Python2020东京奥运会奖牌数据分析项目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD0AC5A-E8EB-4F3B-BCF0-1761DC40A1BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF2549A-60D4-4B59-862C-DB349B0C7F62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="金牌" sheetId="1" r:id="rId1"/>
+    <sheet name="银牌" sheetId="2" r:id="rId2"/>
+    <sheet name="铜牌" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="304">
-  <si>
-    <t>中国奖牌榜-共计88枚（截止2021年8月8日19:00）</t>
-  </si>
-  <si>
-    <t>金牌38枚</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="272">
   <si>
     <t>顺序</t>
   </si>
@@ -40,9 +36,6 @@
     <t>项目</t>
   </si>
   <si>
-    <t>成绩</t>
-  </si>
-  <si>
     <t>第1金</t>
   </si>
   <si>
@@ -55,9 +48,6 @@
     <t>射击女子10米气步枪</t>
   </si>
   <si>
-    <t>251.8环</t>
-  </si>
-  <si>
     <t>第2金</t>
   </si>
   <si>
@@ -67,9 +57,6 @@
     <t>举重女子49公斤级</t>
   </si>
   <si>
-    <t>抓举94公斤  挺举116公斤  总成绩210公斤</t>
-  </si>
-  <si>
     <t>第3金</t>
   </si>
   <si>
@@ -79,9 +66,6 @@
     <t>击剑女子个人重剑</t>
   </si>
   <si>
-    <t>11比10战胜罗马尼亚选手波佩斯库</t>
-  </si>
-  <si>
     <t>第4金</t>
   </si>
   <si>
@@ -94,9 +78,6 @@
     <t>跳水女子双人3米跳板</t>
   </si>
   <si>
-    <t>326.40分</t>
-  </si>
-  <si>
     <t>第5金</t>
   </si>
   <si>
@@ -106,9 +87,6 @@
     <t>举重男子61公斤级</t>
   </si>
   <si>
-    <t>抓举142公斤  挺举170公斤  总成绩312公斤</t>
-  </si>
-  <si>
     <t>第6金</t>
   </si>
   <si>
@@ -118,9 +96,6 @@
     <t>举重男子67公斤级</t>
   </si>
   <si>
-    <t>抓举145公斤  挺举187公斤  总成绩332公斤</t>
-  </si>
-  <si>
     <t>第7金</t>
   </si>
   <si>
@@ -133,9 +108,6 @@
     <t>射击混合双人团体10米气手枪</t>
   </si>
   <si>
-    <t>16:14</t>
-  </si>
-  <si>
     <t>第8金</t>
   </si>
   <si>
@@ -145,9 +117,6 @@
     <t>跳水女子双人10米跳台</t>
   </si>
   <si>
-    <t>363.78分</t>
-  </si>
-  <si>
     <t>第9金</t>
   </si>
   <si>
@@ -157,9 +126,6 @@
     <t>射击混合双人团体10米气步枪</t>
   </si>
   <si>
-    <t>17:13</t>
-  </si>
-  <si>
     <t>第10金</t>
   </si>
   <si>
@@ -181,9 +147,6 @@
     <t>跳水男子双人3米跳板</t>
   </si>
   <si>
-    <t>467.82分</t>
-  </si>
-  <si>
     <t>第12金</t>
   </si>
   <si>
@@ -223,9 +186,6 @@
     <t>乒乓球女子单打</t>
   </si>
   <si>
-    <t>4-2</t>
-  </si>
-  <si>
     <t>第16金</t>
   </si>
   <si>
@@ -415,9 +375,6 @@
     <t>乒乓球女子团体</t>
   </si>
   <si>
-    <t>3-0</t>
-  </si>
-  <si>
     <t>第35金</t>
   </si>
   <si>
@@ -460,9 +417,6 @@
     <t>跳水男子10米跳台</t>
   </si>
   <si>
-    <t>银牌32枚</t>
-  </si>
-  <si>
     <t>第1银</t>
   </si>
   <si>
@@ -472,9 +426,6 @@
     <t>射击男子10米气步枪</t>
   </si>
   <si>
-    <t>250.9环</t>
-  </si>
-  <si>
     <t>第2银</t>
   </si>
   <si>
@@ -484,9 +435,6 @@
     <t>游泳女子100米蝶泳</t>
   </si>
   <si>
-    <t>55秒65</t>
-  </si>
-  <si>
     <t>第3银</t>
   </si>
   <si>
@@ -496,9 +444,6 @@
     <t>跳水男子双人10米跳台</t>
   </si>
   <si>
-    <t>470.58分</t>
-  </si>
-  <si>
     <t>第4银</t>
   </si>
   <si>
@@ -508,9 +453,6 @@
     <t>举重女子55公斤级</t>
   </si>
   <si>
-    <t>抓举97公斤  挺举126公斤  总成绩223公斤</t>
-  </si>
-  <si>
     <t>第5银</t>
   </si>
   <si>
@@ -520,9 +462,6 @@
     <t>乒乓球混合双打</t>
   </si>
   <si>
-    <t>3-4</t>
-  </si>
-  <si>
     <t>第6银</t>
   </si>
   <si>
@@ -538,9 +477,6 @@
     <t>孙颖莎</t>
   </si>
   <si>
-    <t>2-4</t>
-  </si>
-  <si>
     <t>第8银</t>
   </si>
   <si>
@@ -619,9 +555,6 @@
     <t>羽毛球男子单打</t>
   </si>
   <si>
-    <t>0-2</t>
-  </si>
-  <si>
     <t>第18银</t>
   </si>
   <si>
@@ -751,9 +684,6 @@
     <t>拳击女子中量级</t>
   </si>
   <si>
-    <t>铜牌18枚</t>
-  </si>
-  <si>
     <t>第1铜</t>
   </si>
   <si>
@@ -763,9 +693,6 @@
     <t>射击男子10米气手枪</t>
   </si>
   <si>
-    <t>217.6环</t>
-  </si>
-  <si>
     <t>第2铜</t>
   </si>
   <si>
@@ -775,18 +702,12 @@
     <t>射击女子10米气手枪</t>
   </si>
   <si>
-    <t>587环</t>
-  </si>
-  <si>
     <t>第3铜</t>
   </si>
   <si>
     <t>杨皓然</t>
   </si>
   <si>
-    <t>252.8环</t>
-  </si>
-  <si>
     <t>第4铜</t>
   </si>
   <si>
@@ -796,9 +717,6 @@
     <t>跆拳道男子68公斤级</t>
   </si>
   <si>
-    <t>17比15战胜韩国选手李大勋</t>
-  </si>
-  <si>
     <t>第5铜</t>
   </si>
   <si>
@@ -808,9 +726,6 @@
     <t>游泳女子400米自由泳</t>
   </si>
   <si>
-    <t>4分01秒08</t>
-  </si>
-  <si>
     <t>第6铜</t>
   </si>
   <si>
@@ -820,9 +735,6 @@
     <t>射击女子双向飞碟</t>
   </si>
   <si>
-    <t>前50靶过后，得分46分，排名第三</t>
-  </si>
-  <si>
     <t>第7铜</t>
   </si>
   <si>
@@ -832,9 +744,6 @@
     <t>竞技体操男子团体</t>
   </si>
   <si>
-    <t>261.894分</t>
-  </si>
-  <si>
     <t>第8铜</t>
   </si>
   <si>
@@ -860,9 +769,6 @@
   </si>
   <si>
     <t>赛艇女子八人单桨有舵手</t>
-  </si>
-  <si>
-    <t>6分01秒21</t>
   </si>
   <si>
     <t>第11铜</t>
@@ -974,8 +880,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1278,1458 +1187,564 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="49.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="49" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="49.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E9" t="s">
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D11" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E11" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E12" t="s">
+      <c r="B14" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D13" t="s">
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D14" t="s">
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D16" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C17" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D18" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D19" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E18" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D19" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D20" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="C23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D23" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D25" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D23" t="s">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B26" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="C26" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D26" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D27" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D25" t="s">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D28" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D26" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D29" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D27" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D30" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D28" t="s">
+      <c r="B31" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C31" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D31" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D29" t="s">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B30" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D32" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D30" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B31" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D33" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D31" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B34" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B32" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="C34" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D34" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D35" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D33" t="s">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B36" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B34" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="C36" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D36" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B35" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B37" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D37" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C38" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D38" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C39" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D39" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="E37" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>132</v>
-      </c>
-      <c r="B38" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" t="s">
-        <v>134</v>
-      </c>
-      <c r="D38" t="s">
-        <v>135</v>
-      </c>
-      <c r="E38" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>136</v>
-      </c>
-      <c r="B39" t="s">
-        <v>133</v>
-      </c>
-      <c r="C39" t="s">
-        <v>137</v>
-      </c>
-      <c r="D39" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>139</v>
-      </c>
-      <c r="B40" t="s">
-        <v>140</v>
-      </c>
-      <c r="C40" t="s">
-        <v>141</v>
-      </c>
-      <c r="D40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>143</v>
-      </c>
-      <c r="B41" t="s">
-        <v>140</v>
-      </c>
-      <c r="C41" t="s">
-        <v>144</v>
-      </c>
-      <c r="D41" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>146</v>
-      </c>
-      <c r="B42" t="s">
-        <v>146</v>
-      </c>
-      <c r="C42" t="s">
-        <v>146</v>
-      </c>
-      <c r="D42" t="s">
-        <v>146</v>
-      </c>
-      <c r="E42" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>147</v>
-      </c>
-      <c r="B44" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" t="s">
-        <v>148</v>
-      </c>
-      <c r="D44" t="s">
-        <v>149</v>
-      </c>
-      <c r="E44" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>151</v>
-      </c>
-      <c r="B45" t="s">
-        <v>152</v>
-      </c>
-      <c r="C45" t="s">
-        <v>59</v>
-      </c>
-      <c r="D45" t="s">
-        <v>153</v>
-      </c>
-      <c r="E45" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>155</v>
-      </c>
-      <c r="B46" t="s">
-        <v>152</v>
-      </c>
-      <c r="C46" t="s">
-        <v>156</v>
-      </c>
-      <c r="D46" t="s">
-        <v>157</v>
-      </c>
-      <c r="E46" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>159</v>
-      </c>
-      <c r="B47" t="s">
-        <v>152</v>
-      </c>
-      <c r="C47" t="s">
-        <v>160</v>
-      </c>
-      <c r="D47" t="s">
-        <v>161</v>
-      </c>
-      <c r="E47" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>163</v>
-      </c>
-      <c r="B48" t="s">
-        <v>152</v>
-      </c>
-      <c r="C48" t="s">
-        <v>164</v>
-      </c>
-      <c r="D48" t="s">
-        <v>165</v>
-      </c>
-      <c r="E48" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>167</v>
-      </c>
-      <c r="B49" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" t="s">
-        <v>168</v>
-      </c>
-      <c r="D49" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>170</v>
-      </c>
-      <c r="B50" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" t="s">
-        <v>171</v>
-      </c>
-      <c r="D50" t="s">
-        <v>66</v>
-      </c>
-      <c r="E50" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>173</v>
-      </c>
-      <c r="B51" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" t="s">
-        <v>174</v>
-      </c>
-      <c r="D51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>175</v>
-      </c>
-      <c r="B52" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" t="s">
-        <v>176</v>
-      </c>
-      <c r="D52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>177</v>
-      </c>
-      <c r="B53" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" t="s">
-        <v>178</v>
-      </c>
-      <c r="D53" t="s">
-        <v>80</v>
-      </c>
-      <c r="E53" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>179</v>
-      </c>
-      <c r="B54" t="s">
-        <v>180</v>
-      </c>
-      <c r="C54" t="s">
-        <v>181</v>
-      </c>
-      <c r="D54" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>183</v>
-      </c>
-      <c r="B55" t="s">
-        <v>82</v>
-      </c>
-      <c r="C55" t="s">
-        <v>184</v>
-      </c>
-      <c r="D55" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>186</v>
-      </c>
-      <c r="B56" t="s">
-        <v>89</v>
-      </c>
-      <c r="C56" t="s">
-        <v>187</v>
-      </c>
-      <c r="D56" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>188</v>
-      </c>
-      <c r="B57" t="s">
-        <v>89</v>
-      </c>
-      <c r="C57" t="s">
-        <v>189</v>
-      </c>
-      <c r="D57" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>191</v>
-      </c>
-      <c r="B58" t="s">
-        <v>99</v>
-      </c>
-      <c r="C58" t="s">
-        <v>192</v>
-      </c>
-      <c r="D58" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>194</v>
-      </c>
-      <c r="B59" t="s">
-        <v>99</v>
-      </c>
-      <c r="C59" t="s">
-        <v>195</v>
-      </c>
-      <c r="D59" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>196</v>
-      </c>
-      <c r="B60" t="s">
-        <v>99</v>
-      </c>
-      <c r="C60" t="s">
-        <v>197</v>
-      </c>
-      <c r="D60" t="s">
-        <v>198</v>
-      </c>
-      <c r="E60" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>200</v>
-      </c>
-      <c r="B61" t="s">
-        <v>115</v>
-      </c>
-      <c r="C61" t="s">
-        <v>201</v>
-      </c>
-      <c r="D61" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>203</v>
-      </c>
-      <c r="B62" t="s">
-        <v>115</v>
-      </c>
-      <c r="C62" t="s">
-        <v>204</v>
-      </c>
-      <c r="D62" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>205</v>
-      </c>
-      <c r="B63" t="s">
-        <v>115</v>
-      </c>
-      <c r="C63" t="s">
-        <v>206</v>
-      </c>
-      <c r="D63" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>207</v>
-      </c>
-      <c r="B64" t="s">
-        <v>115</v>
-      </c>
-      <c r="C64" t="s">
-        <v>208</v>
-      </c>
-      <c r="D64" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>210</v>
-      </c>
-      <c r="B65" t="s">
-        <v>211</v>
-      </c>
-      <c r="C65" t="s">
-        <v>212</v>
-      </c>
-      <c r="D65" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>214</v>
-      </c>
-      <c r="B66" t="s">
-        <v>125</v>
-      </c>
-      <c r="C66" t="s">
-        <v>215</v>
-      </c>
-      <c r="D66" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>217</v>
-      </c>
-      <c r="B67" t="s">
-        <v>125</v>
-      </c>
-      <c r="C67" t="s">
-        <v>218</v>
-      </c>
-      <c r="D67" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>219</v>
-      </c>
-      <c r="B68" t="s">
-        <v>133</v>
-      </c>
-      <c r="C68" t="s">
-        <v>220</v>
-      </c>
-      <c r="D68" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>222</v>
-      </c>
-      <c r="B69" t="s">
-        <v>133</v>
-      </c>
-      <c r="C69" t="s">
-        <v>223</v>
-      </c>
-      <c r="D69" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>225</v>
-      </c>
-      <c r="B70" t="s">
-        <v>140</v>
-      </c>
-      <c r="C70" t="s">
-        <v>226</v>
-      </c>
-      <c r="D70" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>228</v>
-      </c>
-      <c r="B71" t="s">
-        <v>140</v>
-      </c>
-      <c r="C71" t="s">
-        <v>229</v>
-      </c>
-      <c r="D71" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>231</v>
-      </c>
-      <c r="B72" t="s">
-        <v>140</v>
-      </c>
-      <c r="C72" t="s">
-        <v>232</v>
-      </c>
-      <c r="D72" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>233</v>
-      </c>
-      <c r="B73" t="s">
-        <v>140</v>
-      </c>
-      <c r="C73" t="s">
-        <v>234</v>
-      </c>
-      <c r="D73" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>236</v>
-      </c>
-      <c r="B74" t="s">
-        <v>140</v>
-      </c>
-      <c r="C74" t="s">
-        <v>237</v>
-      </c>
-      <c r="D74" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>239</v>
-      </c>
-      <c r="B75" t="s">
-        <v>240</v>
-      </c>
-      <c r="C75" t="s">
-        <v>241</v>
-      </c>
-      <c r="D75" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>243</v>
-      </c>
-      <c r="B76" t="s">
-        <v>243</v>
-      </c>
-      <c r="C76" t="s">
-        <v>243</v>
-      </c>
-      <c r="D76" t="s">
-        <v>243</v>
-      </c>
-      <c r="E76" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>2</v>
-      </c>
-      <c r="B77" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" t="s">
-        <v>4</v>
-      </c>
-      <c r="D77" t="s">
-        <v>5</v>
-      </c>
-      <c r="E77" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>244</v>
-      </c>
-      <c r="B78" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" t="s">
-        <v>245</v>
-      </c>
-      <c r="D78" t="s">
-        <v>246</v>
-      </c>
-      <c r="E78" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>248</v>
-      </c>
-      <c r="B79" t="s">
-        <v>21</v>
-      </c>
-      <c r="C79" t="s">
-        <v>249</v>
-      </c>
-      <c r="D79" t="s">
-        <v>250</v>
-      </c>
-      <c r="E79" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>252</v>
-      </c>
-      <c r="B80" t="s">
-        <v>21</v>
-      </c>
-      <c r="C80" t="s">
-        <v>253</v>
-      </c>
-      <c r="D80" t="s">
-        <v>246</v>
-      </c>
-      <c r="E80" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>255</v>
-      </c>
-      <c r="B81" t="s">
-        <v>21</v>
-      </c>
-      <c r="C81" t="s">
-        <v>256</v>
-      </c>
-      <c r="D81" t="s">
-        <v>257</v>
-      </c>
-      <c r="E81" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>259</v>
-      </c>
-      <c r="B82" t="s">
-        <v>152</v>
-      </c>
-      <c r="C82" t="s">
-        <v>260</v>
-      </c>
-      <c r="D82" t="s">
-        <v>261</v>
-      </c>
-      <c r="E82" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>263</v>
-      </c>
-      <c r="B83" t="s">
-        <v>152</v>
-      </c>
-      <c r="C83" t="s">
-        <v>264</v>
-      </c>
-      <c r="D83" t="s">
-        <v>265</v>
-      </c>
-      <c r="E83" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>267</v>
-      </c>
-      <c r="B84" t="s">
-        <v>152</v>
-      </c>
-      <c r="C84" t="s">
-        <v>268</v>
-      </c>
-      <c r="D84" t="s">
-        <v>269</v>
-      </c>
-      <c r="E84" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>271</v>
-      </c>
-      <c r="B85" t="s">
-        <v>47</v>
-      </c>
-      <c r="C85" t="s">
-        <v>272</v>
-      </c>
-      <c r="D85" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>274</v>
-      </c>
-      <c r="B86" t="s">
-        <v>47</v>
-      </c>
-      <c r="C86" t="s">
-        <v>275</v>
-      </c>
-      <c r="D86" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>277</v>
-      </c>
-      <c r="B87" t="s">
-        <v>69</v>
-      </c>
-      <c r="C87" t="s">
-        <v>278</v>
-      </c>
-      <c r="D87" t="s">
-        <v>279</v>
-      </c>
-      <c r="E87" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>281</v>
-      </c>
-      <c r="B88" t="s">
-        <v>69</v>
-      </c>
-      <c r="C88" t="s">
-        <v>282</v>
-      </c>
-      <c r="D88" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>284</v>
-      </c>
-      <c r="B89" t="s">
-        <v>82</v>
-      </c>
-      <c r="C89" t="s">
-        <v>285</v>
-      </c>
-      <c r="D89" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>287</v>
-      </c>
-      <c r="B90" t="s">
-        <v>89</v>
-      </c>
-      <c r="C90" t="s">
-        <v>168</v>
-      </c>
-      <c r="D90" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>289</v>
-      </c>
-      <c r="B91" t="s">
-        <v>99</v>
-      </c>
-      <c r="C91" t="s">
-        <v>290</v>
-      </c>
-      <c r="D91" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>292</v>
-      </c>
-      <c r="B92" t="s">
-        <v>99</v>
-      </c>
-      <c r="C92" t="s">
-        <v>293</v>
-      </c>
-      <c r="D92" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>295</v>
-      </c>
-      <c r="B93" t="s">
-        <v>99</v>
-      </c>
-      <c r="C93" t="s">
-        <v>296</v>
-      </c>
-      <c r="D93" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>298</v>
-      </c>
-      <c r="B94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C94" t="s">
-        <v>299</v>
-      </c>
-      <c r="D94" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>301</v>
-      </c>
-      <c r="B95" t="s">
-        <v>140</v>
-      </c>
-      <c r="C95" t="s">
-        <v>302</v>
-      </c>
-      <c r="D95" t="s">
-        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -2737,4 +1752,777 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85699198-CCF5-40AC-BEE2-AD924ADE95D7}">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" t="s">
+        <v>189</v>
+      </c>
+      <c r="D23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>191</v>
+      </c>
+      <c r="B24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" t="s">
+        <v>192</v>
+      </c>
+      <c r="D24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>194</v>
+      </c>
+      <c r="B25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" t="s">
+        <v>195</v>
+      </c>
+      <c r="D25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" t="s">
+        <v>200</v>
+      </c>
+      <c r="D27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>202</v>
+      </c>
+      <c r="B28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" t="s">
+        <v>203</v>
+      </c>
+      <c r="D28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>205</v>
+      </c>
+      <c r="B29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" t="s">
+        <v>206</v>
+      </c>
+      <c r="D29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" t="s">
+        <v>209</v>
+      </c>
+      <c r="D30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>210</v>
+      </c>
+      <c r="B31" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" t="s">
+        <v>211</v>
+      </c>
+      <c r="D31" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>213</v>
+      </c>
+      <c r="B32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>216</v>
+      </c>
+      <c r="B33" t="s">
+        <v>217</v>
+      </c>
+      <c r="C33" t="s">
+        <v>218</v>
+      </c>
+      <c r="D33" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C999B716-A927-44AB-AE21-C8C989ED5836}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>250</v>
+      </c>
+      <c r="D12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>252</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>257</v>
+      </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>258</v>
+      </c>
+      <c r="D15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>260</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" t="s">
+        <v>261</v>
+      </c>
+      <c r="D16" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>263</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" t="s">
+        <v>264</v>
+      </c>
+      <c r="D17" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>266</v>
+      </c>
+      <c r="B18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" t="s">
+        <v>267</v>
+      </c>
+      <c r="D18" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>269</v>
+      </c>
+      <c r="B19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" t="s">
+        <v>270</v>
+      </c>
+      <c r="D19" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>